--- a/nice_2020.xlsx
+++ b/nice_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>region</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>okrug</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>fin_share</t>
+  </si>
+  <si>
+    <t>cev_share</t>
   </si>
   <si>
     <t>Республика Адыгея</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +912,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -966,7 +984,7 @@
         <v>0.2620149250000168</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2">
         <v>2796.977696717631</v>
@@ -975,12 +993,21 @@
         <v>36.35057038663238</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL2">
+        <v>13.23675724867</v>
+      </c>
+      <c r="AM2">
+        <v>0.08537472714043173</v>
+      </c>
+      <c r="AN2">
+        <v>0.04026194518554452</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2020</v>
@@ -1040,7 +1067,7 @@
         <v>0.5325288469999805</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V3">
         <v>2555.956583006347</v>
@@ -1049,12 +1076,21 @@
         <v>29.44112542681285</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL3">
+        <v>12.67021633243</v>
+      </c>
+      <c r="AM3">
+        <v>0.04263810123923546</v>
+      </c>
+      <c r="AN3">
+        <v>0.024784709094728</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -1114,7 +1150,7 @@
         <v>0.5768490659999941</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V4">
         <v>2535.241524284826</v>
@@ -1141,12 +1177,21 @@
         <v>14.95</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>12.91608352924</v>
+      </c>
+      <c r="AM4">
+        <v>0.02626252273950139</v>
+      </c>
+      <c r="AN4">
+        <v>0.03927848522893231</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -1206,7 +1251,7 @@
         <v>0.3236518389999929</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>2618.539670423904</v>
@@ -1233,12 +1278,21 @@
         <v>12.75</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL5">
+        <v>12.98652319265</v>
+      </c>
+      <c r="AM5">
+        <v>0.02285311041146456</v>
+      </c>
+      <c r="AN5">
+        <v>0.03045271957442189</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -1298,7 +1352,7 @@
         <v>0.4469421229999995</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V6">
         <v>2827.071719930351</v>
@@ -1307,12 +1361,21 @@
         <v>27.31621190749648</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL6">
+        <v>13.08722927573</v>
+      </c>
+      <c r="AM6">
+        <v>0.05153612247037852</v>
+      </c>
+      <c r="AN6">
+        <v>0.04314774037957429</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2020</v>
@@ -1372,7 +1435,7 @@
         <v>0.4498364139999893</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V7">
         <v>2802.475166359442</v>
@@ -1381,12 +1444,21 @@
         <v>36.96407354541748</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL7">
+        <v>13.18284257702</v>
+      </c>
+      <c r="AM7">
+        <v>0.05249306494060745</v>
+      </c>
+      <c r="AN7">
+        <v>0.05256419375489012</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -1446,7 +1518,7 @@
         <v>0.0702061599999837</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V8">
         <v>2968.742578744788</v>
@@ -1473,12 +1545,21 @@
         <v>14.03</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL8">
+        <v>13.2363466759</v>
+      </c>
+      <c r="AM8">
+        <v>0.04691945672208006</v>
+      </c>
+      <c r="AN8">
+        <v>0.06094876796163413</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -1538,7 +1619,7 @@
         <v>0.1232660419999831</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9">
         <v>2965.185253134403</v>
@@ -1547,12 +1628,21 @@
         <v>33.65135900505065</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL9">
+        <v>13.26208831744</v>
+      </c>
+      <c r="AM9">
+        <v>0.04406945122376404</v>
+      </c>
+      <c r="AN9">
+        <v>0.04379053064639845</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2020</v>
@@ -1612,7 +1702,7 @@
         <v>0.05750623000000132</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>2860.404575757401</v>
@@ -1621,12 +1711,21 @@
         <v>38.47510578704043</v>
       </c>
       <c r="AK10" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL10">
+        <v>13.14266190824</v>
+      </c>
+      <c r="AM10">
+        <v>0.05382790881539071</v>
+      </c>
+      <c r="AN10">
+        <v>0.04513111081828964</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -1686,7 +1785,7 @@
         <v>0.08945093899998824</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V11">
         <v>2670.722319992968</v>
@@ -1695,12 +1794,21 @@
         <v>36.47840258511133</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL11">
+        <v>13.15074587241</v>
+      </c>
+      <c r="AM11">
+        <v>0.02660012597509569</v>
+      </c>
+      <c r="AN11">
+        <v>0.02374146034207084</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -1760,7 +1868,7 @@
         <v>0.07329164499999763</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V12">
         <v>2812.45336068392</v>
@@ -1769,12 +1877,21 @@
         <v>40.14983653716335</v>
       </c>
       <c r="AK12" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL12">
+        <v>12.98956898905</v>
+      </c>
+      <c r="AM12">
+        <v>0.05440101318289102</v>
+      </c>
+      <c r="AN12">
+        <v>0.04732024638765758</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2020</v>
@@ -1834,7 +1951,7 @@
         <v>0.2086710979999964</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>2734.535934732443</v>
@@ -1861,12 +1978,21 @@
         <v>14.07</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL13">
+        <v>13.24772120112</v>
+      </c>
+      <c r="AM13">
+        <v>0.03654974539250911</v>
+      </c>
+      <c r="AN13">
+        <v>0.02809729366453847</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2020</v>
@@ -1926,7 +2052,7 @@
         <v>0.1989754749999975</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V14">
         <v>2872.170366636379</v>
@@ -1953,12 +2079,21 @@
         <v>8.58</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL14">
+        <v>13.01115286647</v>
+      </c>
+      <c r="AM14">
+        <v>0.04637865311308769</v>
+      </c>
+      <c r="AN14">
+        <v>0.0344807670093566</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2020</v>
@@ -2018,7 +2153,7 @@
         <v>0.1876829879999917</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V15">
         <v>2774.910018864714</v>
@@ -2045,12 +2180,21 @@
         <v>12.13</v>
       </c>
       <c r="AK15" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL15">
+        <v>13.15001327372</v>
+      </c>
+      <c r="AM15">
+        <v>0.04754486962411108</v>
+      </c>
+      <c r="AN15">
+        <v>0.04009481882831021</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2020</v>
@@ -2110,7 +2254,7 @@
         <v>2.174170279999998</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16">
         <v>2724.248897959645</v>
@@ -2119,12 +2263,21 @@
         <v>29.39012584788376</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL16">
+        <v>12.67116434446</v>
+      </c>
+      <c r="AM16">
+        <v>0.02112103980503655</v>
+      </c>
+      <c r="AN16">
+        <v>0.03032764689953967</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2020</v>
@@ -2184,7 +2337,7 @@
         <v>0.9176598039999959</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V17">
         <v>2950.72412642583</v>
@@ -2211,12 +2364,21 @@
         <v>13.85</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL17">
+        <v>12.38992914744</v>
+      </c>
+      <c r="AM17">
+        <v>0.02462229661278244</v>
+      </c>
+      <c r="AN17">
+        <v>0.0296877064705105</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2020</v>
@@ -2276,7 +2438,7 @@
         <v>0.1480038859999979</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V18">
         <v>2583.215598377891</v>
@@ -2285,12 +2447,21 @@
         <v>33.39872748123358</v>
       </c>
       <c r="AK18" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL18">
+        <v>13.00674278058</v>
+      </c>
+      <c r="AM18">
+        <v>0.0548283885980221</v>
+      </c>
+      <c r="AN18">
+        <v>0.05461023851076206</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2020</v>
@@ -2350,7 +2521,7 @@
         <v>0.2442398349999877</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V19">
         <v>2819.468557774245</v>
@@ -2359,12 +2530,21 @@
         <v>34.53226581934486</v>
       </c>
       <c r="AK19" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL19">
+        <v>12.78933424097</v>
+      </c>
+      <c r="AM19">
+        <v>0.03566178214065537</v>
+      </c>
+      <c r="AN19">
+        <v>0.03217622231706738</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2020</v>
@@ -2424,7 +2604,7 @@
         <v>0.484178849000017</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20">
         <v>2685.54414441806</v>
@@ -2433,12 +2613,21 @@
         <v>38.47884328703821</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL20">
+        <v>13.02120632729</v>
+      </c>
+      <c r="AM20">
+        <v>0.03926913725779121</v>
+      </c>
+      <c r="AN20">
+        <v>0.04958373240993148</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2020</v>
@@ -2498,7 +2687,7 @@
         <v>0.4038342030000166</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V21">
         <v>2118.973197725359</v>
@@ -2525,12 +2714,21 @@
         <v>15.77</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL21">
+        <v>13.26387011081</v>
+      </c>
+      <c r="AM21">
+        <v>0.1032438088594348</v>
+      </c>
+      <c r="AN21">
+        <v>0.03069410533658875</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2020</v>
@@ -2590,7 +2788,7 @@
         <v>0.1810105429999993</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22">
         <v>2619.604549900643</v>
@@ -2617,12 +2815,21 @@
         <v>12.31</v>
       </c>
       <c r="AK22" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL22">
+        <v>13.09756018351</v>
+      </c>
+      <c r="AM22">
+        <v>0.04044395374513336</v>
+      </c>
+      <c r="AN22">
+        <v>0.06909175431460286</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2020</v>
@@ -2682,7 +2889,7 @@
         <v>0.5937653869999906</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>2335.188360817825</v>
@@ -2691,12 +2898,21 @@
         <v>29.39067437348705</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL23">
+        <v>13.20295580997</v>
+      </c>
+      <c r="AM23">
+        <v>0.04231815091774303</v>
+      </c>
+      <c r="AN23">
+        <v>0.05472467709041469</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2020</v>
@@ -2756,7 +2972,7 @@
         <v>0.4089325610000003</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V24">
         <v>2852.292222135086</v>
@@ -2783,12 +2999,21 @@
         <v>12.39</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>12.92913167607</v>
+      </c>
+      <c r="AM24">
+        <v>0.03412893151907206</v>
+      </c>
+      <c r="AN24">
+        <v>0.03985426425756563</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2020</v>
@@ -2848,7 +3073,7 @@
         <v>0.2115273820000141</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V25">
         <v>2547.393903812351</v>
@@ -2857,12 +3082,21 @@
         <v>31.05708574281401</v>
       </c>
       <c r="AK25" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>12.97051947688</v>
+      </c>
+      <c r="AM25">
+        <v>0.02101295186545525</v>
+      </c>
+      <c r="AN25">
+        <v>0.04633674850183647</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2020</v>
@@ -2922,7 +3156,7 @@
         <v>0.1895073390000022</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V26">
         <v>2622.674770775418</v>
@@ -2931,12 +3165,21 @@
         <v>33.5342142342043</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>12.88205551769</v>
+      </c>
+      <c r="AM26">
+        <v>0.03932138893293165</v>
+      </c>
+      <c r="AN26">
+        <v>0.04212250938111092</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2020</v>
@@ -2996,7 +3239,7 @@
         <v>0.1541058629999981</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V27">
         <v>2422.320319831853</v>
@@ -3005,12 +3248,21 @@
         <v>32.77094766841667</v>
       </c>
       <c r="AK27" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL27">
+        <v>13.06841449335</v>
+      </c>
+      <c r="AM27">
+        <v>0.0370262729597768</v>
+      </c>
+      <c r="AN27">
+        <v>0.04022320390606835</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2020</v>
@@ -3070,7 +3322,7 @@
         <v>0.06000007399998708</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V28">
         <v>2725.685538329829</v>
@@ -3079,12 +3331,21 @@
         <v>35.56672388539134</v>
       </c>
       <c r="AK28" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>13.01843296194</v>
+      </c>
+      <c r="AM28">
+        <v>0.04926486723721746</v>
+      </c>
+      <c r="AN28">
+        <v>0.04959403116085143</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2020</v>
@@ -3144,7 +3405,7 @@
         <v>0.07248635899999556</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V29">
         <v>2582.418634423399</v>
@@ -3171,12 +3432,21 @@
         <v>14.24</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL29">
+        <v>12.93429453105</v>
+      </c>
+      <c r="AM29">
+        <v>0.04978304927977803</v>
+      </c>
+      <c r="AN29">
+        <v>0.03401841700784832</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2020</v>
@@ -3236,7 +3506,7 @@
         <v>0.5574512230000011</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V30">
         <v>2556.368570876028</v>
@@ -3263,12 +3533,21 @@
         <v>17.8</v>
       </c>
       <c r="AK30" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL30">
+        <v>12.95415078869</v>
+      </c>
+      <c r="AM30">
+        <v>0.03092291078252201</v>
+      </c>
+      <c r="AN30">
+        <v>0.05345572354211663</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2020</v>
@@ -3328,7 +3607,7 @@
         <v>0.01951685599999564</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="V31">
         <v>2488.410885514606</v>
@@ -3337,12 +3616,21 @@
         <v>45.90569922424106</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL31">
+        <v>13.1185119347</v>
+      </c>
+      <c r="AM31">
+        <v>0.04708975186790886</v>
+      </c>
+      <c r="AN31">
+        <v>0.03980260123604833</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2020</v>
@@ -3402,7 +3690,7 @@
         <v>0.4965387239999899</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V32">
         <v>2643.642363784054</v>
@@ -3411,12 +3699,21 @@
         <v>37.68640442201703</v>
       </c>
       <c r="AK32" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL32">
+        <v>12.70943326694</v>
+      </c>
+      <c r="AM32">
+        <v>0.05154573326520184</v>
+      </c>
+      <c r="AN32">
+        <v>0.09095554420030662</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -3476,7 +3773,7 @@
         <v>0.1248480849999822</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V33">
         <v>2968.781315961703</v>
@@ -3485,12 +3782,21 @@
         <v>35.85645751558374</v>
       </c>
       <c r="AK33" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL33">
+        <v>13.36751624915</v>
+      </c>
+      <c r="AM33">
+        <v>0.04365964180392719</v>
+      </c>
+      <c r="AN33">
+        <v>0.04243688412572826</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2020</v>
@@ -3550,7 +3856,7 @@
         <v>0.07213233199999536</v>
       </c>
       <c r="U34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V34">
         <v>2592.381344067458</v>
@@ -3559,12 +3865,21 @@
         <v>35.34569709514454</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL34">
+        <v>13.1276466021</v>
+      </c>
+      <c r="AM34">
+        <v>0.06114412804900279</v>
+      </c>
+      <c r="AN34">
+        <v>0.04218470849892441</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2020</v>
@@ -3624,7 +3939,7 @@
         <v>0.2260088449999955</v>
       </c>
       <c r="U35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V35">
         <v>2615.393451102303</v>
@@ -3651,12 +3966,21 @@
         <v>13.72</v>
       </c>
       <c r="AK35" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL35">
+        <v>13.20951762857</v>
+      </c>
+      <c r="AM35">
+        <v>0.04352425570500227</v>
+      </c>
+      <c r="AN35">
+        <v>0.06241499168807615</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2020</v>
@@ -3716,7 +4040,7 @@
         <v>0.122650090999997</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V36">
         <v>2650.091045116171</v>
@@ -3725,12 +4049,21 @@
         <v>33.28620545471895</v>
       </c>
       <c r="AK36" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL36">
+        <v>13.43746863169</v>
+      </c>
+      <c r="AM36">
+        <v>0.07927519818799547</v>
+      </c>
+      <c r="AN36">
+        <v>0.07059267648169118</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2020</v>
@@ -3790,7 +4123,7 @@
         <v>0.505371358000005</v>
       </c>
       <c r="U37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V37">
         <v>2613.151082945753</v>
@@ -3799,12 +4132,21 @@
         <v>37.38483589519442</v>
       </c>
       <c r="AK37" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL37">
+        <v>12.91788241276</v>
+      </c>
+      <c r="AM37">
+        <v>0.0563380281690141</v>
+      </c>
+      <c r="AN37">
+        <v>0.04580755561405819</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>2020</v>
@@ -3864,7 +4206,7 @@
         <v>0.1564159600000039</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V38">
         <v>3023.984804168013</v>
@@ -3873,12 +4215,21 @@
         <v>41.74579373190456</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL38">
+        <v>13.35746995548</v>
+      </c>
+      <c r="AM38">
+        <v>0.1120125938483894</v>
+      </c>
+      <c r="AN38">
+        <v>0.07047711310244609</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2020</v>
@@ -3938,7 +4289,7 @@
         <v>0.01326971700000001</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V39">
         <v>2485.607578921704</v>
@@ -3980,12 +4331,21 @@
         <v>12.22</v>
       </c>
       <c r="AK39" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <v>13.86079969455</v>
+      </c>
+      <c r="AM39">
+        <v>0.08182370239971615</v>
+      </c>
+      <c r="AN39">
+        <v>0.04772821866961428</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2020</v>
@@ -4045,7 +4405,7 @@
         <v>0.08436469699999805</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V40">
         <v>2749.778682626453</v>
@@ -4054,12 +4414,21 @@
         <v>28.71137579837735</v>
       </c>
       <c r="AK40" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL40">
+        <v>13.48784412949</v>
+      </c>
+      <c r="AM40">
+        <v>0.05305581477123652</v>
+      </c>
+      <c r="AN40">
+        <v>0.06840589118351117</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>2020</v>
@@ -4119,7 +4488,7 @@
         <v>0.04716337000000692</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V41">
         <v>2363.914251942394</v>
@@ -4146,12 +4515,21 @@
         <v>2.5</v>
       </c>
       <c r="AK41" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL41">
+        <v>13.27138149446</v>
+      </c>
+      <c r="AM41">
+        <v>0.02715080143931959</v>
+      </c>
+      <c r="AN41">
+        <v>0.04465161923454367</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2020</v>
@@ -4211,7 +4589,7 @@
         <v>0.8655144170000142</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V42">
         <v>2435.868873314223</v>
@@ -4220,12 +4598,21 @@
         <v>31.53596110582685</v>
       </c>
       <c r="AK42" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL42">
+        <v>13.03550289835</v>
+      </c>
+      <c r="AM42">
+        <v>0.09426229508196722</v>
+      </c>
+      <c r="AN42">
+        <v>0.05327868852459017</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2020</v>
@@ -4285,7 +4672,7 @@
         <v>0.2013522449999954</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V43">
         <v>2966.777600547086</v>
@@ -4294,12 +4681,21 @@
         <v>36.52131258079</v>
       </c>
       <c r="AK43" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL43">
+        <v>13.21048397231</v>
+      </c>
+      <c r="AM43">
+        <v>0.06351418381085105</v>
+      </c>
+      <c r="AN43">
+        <v>0.07121430427285827</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>2020</v>
@@ -4359,7 +4755,7 @@
         <v>0.2535580029999949</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V44">
         <v>2624.12608617989</v>
@@ -4368,12 +4764,21 @@
         <v>32.22853259018463</v>
       </c>
       <c r="AK44" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL44">
+        <v>12.95824094883</v>
+      </c>
+      <c r="AM44">
+        <v>0.03410496554161514</v>
+      </c>
+      <c r="AN44">
+        <v>0.0752783177239795</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>2020</v>
@@ -4433,7 +4838,7 @@
         <v>0.3528693309999937</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V45">
         <v>2514.75921129078</v>
@@ -4442,12 +4847,21 @@
         <v>33.05900353125285</v>
       </c>
       <c r="AK45" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL45">
+        <v>12.91055184671</v>
+      </c>
+      <c r="AM45">
+        <v>0.04147149760242904</v>
+      </c>
+      <c r="AN45">
+        <v>0.02877085146168516</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>2020</v>
@@ -4507,7 +4921,7 @@
         <v>0.6563642240000149</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V46">
         <v>2581.867981487688</v>
@@ -4516,12 +4930,21 @@
         <v>37.71306979813841</v>
       </c>
       <c r="AK46" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL46">
+        <v>12.88702916958</v>
+      </c>
+      <c r="AM46">
+        <v>0.06144612746498998</v>
+      </c>
+      <c r="AN46">
+        <v>0.05221900134732371</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2020</v>
@@ -4581,7 +5004,7 @@
         <v>0.02764541200001247</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V47">
         <v>2928.031193557297</v>
@@ -4590,12 +5013,21 @@
         <v>35.11165750650853</v>
       </c>
       <c r="AK47" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL47">
+        <v>13.0716293098</v>
+      </c>
+      <c r="AM47">
+        <v>0.04562820652767167</v>
+      </c>
+      <c r="AN47">
+        <v>0.07939453480333301</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2020</v>
@@ -4655,7 +5087,7 @@
         <v>0.03212127099999407</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V48">
         <v>2451.999655596711</v>
@@ -4664,12 +5096,21 @@
         <v>30.81843991766575</v>
       </c>
       <c r="AK48" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL48">
+        <v>13.27364674051</v>
+      </c>
+      <c r="AM48">
+        <v>0.05599064874342487</v>
+      </c>
+      <c r="AN48">
+        <v>0.04114552893045002</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2020</v>
@@ -4729,7 +5170,7 @@
         <v>0.105968718000014</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V49">
         <v>2795.055313531179</v>
@@ -4738,12 +5179,21 @@
         <v>34.9599892494464</v>
       </c>
       <c r="AK49" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL49">
+        <v>13.31575992614</v>
+      </c>
+      <c r="AM49">
+        <v>0.04874260355029587</v>
+      </c>
+      <c r="AN49">
+        <v>0.0444526627218935</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2020</v>
@@ -4803,7 +5253,7 @@
         <v>0.290738728000008</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V50">
         <v>2320.803176816881</v>
@@ -4830,12 +5280,21 @@
         <v>13.03</v>
       </c>
       <c r="AK50" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL50">
+        <v>12.92170081538</v>
+      </c>
+      <c r="AM50">
+        <v>0.04353302766161133</v>
+      </c>
+      <c r="AN50">
+        <v>0.06736534488839621</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2020</v>
@@ -4895,7 +5354,7 @@
         <v>0.3116938499999975</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V51">
         <v>2399.267927632155</v>
@@ -4904,12 +5363,21 @@
         <v>30.76660402860222</v>
       </c>
       <c r="AK51" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL51">
+        <v>13.02275250112</v>
+      </c>
+      <c r="AM51">
+        <v>0.03287357743691242</v>
+      </c>
+      <c r="AN51">
+        <v>0.04781048985650669</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2020</v>
@@ -4969,7 +5437,7 @@
         <v>0.6557935580000134</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V52">
         <v>2389.646938561179</v>
@@ -4978,12 +5446,21 @@
         <v>36.95009520986848</v>
       </c>
       <c r="AK52" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL52">
+        <v>12.9758252613</v>
+      </c>
+      <c r="AM52">
+        <v>0.05126785516554092</v>
+      </c>
+      <c r="AN52">
+        <v>0.1358653526741225</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2020</v>
@@ -5043,7 +5520,7 @@
         <v>0.3265557889999968</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V53">
         <v>2878.215840629554</v>
@@ -5052,12 +5529,21 @@
         <v>32.56194288357146</v>
       </c>
       <c r="AK53" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL53">
+        <v>13.13456179717</v>
+      </c>
+      <c r="AM53">
+        <v>0.03081631661619679</v>
+      </c>
+      <c r="AN53">
+        <v>0.0442245720855667</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2020</v>
@@ -5117,7 +5603,7 @@
         <v>0.2993876750000055</v>
       </c>
       <c r="U54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V54">
         <v>2459.747898342395</v>
@@ -5126,12 +5612,21 @@
         <v>38.25510224686667</v>
       </c>
       <c r="AK54" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL54">
+        <v>13.18365245711</v>
+      </c>
+      <c r="AM54">
+        <v>0.06973959892247832</v>
+      </c>
+      <c r="AN54">
+        <v>0.06335428514416841</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>2020</v>
@@ -5191,7 +5686,7 @@
         <v>0.3462492510000033</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V55">
         <v>2350.244094797255</v>
@@ -5200,12 +5695,21 @@
         <v>33.42195117552645</v>
       </c>
       <c r="AK55" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL55">
+        <v>13.44612169327</v>
+      </c>
+      <c r="AM55">
+        <v>0.06726518090769648</v>
+      </c>
+      <c r="AN55">
+        <v>0.07310746187855273</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2020</v>
@@ -5265,7 +5769,7 @@
         <v>0.0240700119999957</v>
       </c>
       <c r="U56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V56">
         <v>2502.244336482291</v>
@@ -5292,12 +5796,21 @@
         <v>11.76</v>
       </c>
       <c r="AK56" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL56">
+        <v>13.5902145136</v>
+      </c>
+      <c r="AM56">
+        <v>0.04878565952796492</v>
+      </c>
+      <c r="AN56">
+        <v>0.08788269258999495</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>2020</v>
@@ -5357,7 +5870,7 @@
         <v>0.08147399799999278</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V57">
         <v>2791.150549830163</v>
@@ -5366,12 +5879,21 @@
         <v>40.7147169520482</v>
       </c>
       <c r="AK57" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL57">
+        <v>13.14889787878</v>
+      </c>
+      <c r="AM57">
+        <v>0.05431403985210877</v>
+      </c>
+      <c r="AN57">
+        <v>0.04750842522003731</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>2020</v>
@@ -5431,7 +5953,7 @@
         <v>0.4838884190000101</v>
       </c>
       <c r="U58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="V58">
         <v>2616.354407669518</v>
@@ -5458,12 +5980,21 @@
         <v>11.52</v>
       </c>
       <c r="AK58" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL58">
+        <v>13.09305026423</v>
+      </c>
+      <c r="AM58">
+        <v>0.05269224436028323</v>
+      </c>
+      <c r="AN58">
+        <v>0.04454141281080192</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2020</v>
@@ -5523,7 +6054,7 @@
         <v>0.6529924190000003</v>
       </c>
       <c r="U59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V59">
         <v>2660.871809409134</v>
@@ -5532,12 +6063,21 @@
         <v>34.3837412460966</v>
       </c>
       <c r="AK59" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL59">
+        <v>12.83803827977</v>
+      </c>
+      <c r="AM59">
+        <v>0.0401646639964397</v>
+      </c>
+      <c r="AN59">
+        <v>0.03460169114374722</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>2020</v>
@@ -5597,7 +6137,7 @@
         <v>0.3384590040000148</v>
       </c>
       <c r="U60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V60">
         <v>2504.755796195225</v>
@@ -5606,12 +6146,21 @@
         <v>31.51429075289405</v>
       </c>
       <c r="AK60" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL60">
+        <v>13.06888202082</v>
+      </c>
+      <c r="AM60">
+        <v>0.04587108907505557</v>
+      </c>
+      <c r="AN60">
+        <v>0.07126004445204311</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>2020</v>
@@ -5671,7 +6220,7 @@
         <v>0.1641428710000099</v>
       </c>
       <c r="U61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V61">
         <v>2641.401950648033</v>
@@ -5680,12 +6229,21 @@
         <v>44.89930556841765</v>
       </c>
       <c r="AK61" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL61">
+        <v>13.49203625781</v>
+      </c>
+      <c r="AM61">
+        <v>0.03931847968545216</v>
+      </c>
+      <c r="AN61">
+        <v>0.06864351245085189</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2020</v>
@@ -5745,7 +6303,7 @@
         <v>0.1398805970000012</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V62">
         <v>3272.272098363866</v>
@@ -5754,12 +6312,21 @@
         <v>49.04698796256053</v>
       </c>
       <c r="AK62" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL62">
+        <v>13.05291171371</v>
+      </c>
+      <c r="AM62">
+        <v>0.04848649014694929</v>
+      </c>
+      <c r="AN62">
+        <v>0.04936683144850004</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>2020</v>
@@ -5819,7 +6386,7 @@
         <v>0.6067193810000049</v>
       </c>
       <c r="U63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V63">
         <v>2270.898478461369</v>
@@ -5828,12 +6395,21 @@
         <v>33.7391188051994</v>
       </c>
       <c r="AK63" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL63">
+        <v>13.01538221901</v>
+      </c>
+      <c r="AM63">
+        <v>0.04565004150003772</v>
+      </c>
+      <c r="AN63">
+        <v>0.05621368746698861</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>2020</v>
@@ -5893,7 +6469,7 @@
         <v>0.06773928299999454</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V64">
         <v>2442.776215560855</v>
@@ -5902,12 +6478,21 @@
         <v>25.0202561549425</v>
       </c>
       <c r="AK64" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL64">
+        <v>13.24158812403</v>
+      </c>
+      <c r="AM64">
+        <v>0.05368018419489008</v>
+      </c>
+      <c r="AN64">
+        <v>0.06309417706476531</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>2020</v>
@@ -5967,7 +6552,7 @@
         <v>0.4032054679999959</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V65">
         <v>2817.974337079401</v>
@@ -5976,12 +6561,21 @@
         <v>40.3831244045542</v>
       </c>
       <c r="AK65" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL65">
+        <v>13.0647382139</v>
+      </c>
+      <c r="AM65">
+        <v>0.03406841305648912</v>
+      </c>
+      <c r="AN65">
+        <v>0.02651811610883477</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>2020</v>
@@ -6041,7 +6635,7 @@
         <v>0.1328943089999939</v>
       </c>
       <c r="U66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V66">
         <v>2261.319590401883</v>
@@ -6050,12 +6644,21 @@
         <v>28.35967288157267</v>
       </c>
       <c r="AK66" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL66">
+        <v>13.07369862479</v>
+      </c>
+      <c r="AM66">
+        <v>0.03720101195952162</v>
+      </c>
+      <c r="AN66">
+        <v>0.04295078196872126</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>2020</v>
@@ -6115,7 +6718,7 @@
         <v>0.1839741290000063</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V67">
         <v>2833.415836796288</v>
@@ -6124,12 +6727,21 @@
         <v>38.19182042287219</v>
       </c>
       <c r="AK67" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL67">
+        <v>13.12043422031</v>
+      </c>
+      <c r="AM67">
+        <v>0.07944427387166103</v>
+      </c>
+      <c r="AN67">
+        <v>0.05733804114215537</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>2020</v>
@@ -6189,7 +6801,7 @@
         <v>0.6478862949999922</v>
       </c>
       <c r="U68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V68">
         <v>2167.224440201581</v>
@@ -6198,12 +6810,21 @@
         <v>30.06820235735367</v>
       </c>
       <c r="AK68" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL68">
+        <v>13.02863885693</v>
+      </c>
+      <c r="AM68">
+        <v>0.02129651298853264</v>
+      </c>
+      <c r="AN68">
+        <v>0.03440205944301427</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>2020</v>
@@ -6263,7 +6884,7 @@
         <v>0.173215581000008</v>
       </c>
       <c r="U69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V69">
         <v>3202.13740115215</v>
@@ -6290,12 +6911,21 @@
         <v>13.03</v>
       </c>
       <c r="AK69" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL69">
+        <v>13.16735794259</v>
+      </c>
+      <c r="AM69">
+        <v>0.05061194813588075</v>
+      </c>
+      <c r="AN69">
+        <v>0.06054853172840004</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>2020</v>
@@ -6355,7 +6985,7 @@
         <v>0.03735749099999452</v>
       </c>
       <c r="U70" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V70">
         <v>2481.869759715172</v>
@@ -6364,12 +6994,21 @@
         <v>29.98665308551872</v>
       </c>
       <c r="AK70" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL70">
+        <v>13.06337623693</v>
+      </c>
+      <c r="AM70">
+        <v>0.04142475512021373</v>
+      </c>
+      <c r="AN70">
+        <v>0.04890471950133574</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2020</v>
@@ -6429,7 +7068,7 @@
         <v>0.1066550649999982</v>
       </c>
       <c r="U71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V71">
         <v>2503.641882975774</v>
@@ -6438,12 +7077,21 @@
         <v>36.51563274396956</v>
       </c>
       <c r="AK71" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL71">
+        <v>12.89331104395</v>
+      </c>
+      <c r="AM71">
+        <v>0.05430682175416535</v>
+      </c>
+      <c r="AN71">
+        <v>0.06169443571204024</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>2020</v>
@@ -6503,7 +7151,7 @@
         <v>0.1644477040000112</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V72">
         <v>2146.432956520346</v>
@@ -6530,12 +7178,21 @@
         <v>14.76</v>
       </c>
       <c r="AK72" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL72">
+        <v>13.20206407402</v>
+      </c>
+      <c r="AM72">
+        <v>0.02938973342145847</v>
+      </c>
+      <c r="AN72">
+        <v>0.04203569068076668</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>2020</v>
@@ -6595,7 +7252,7 @@
         <v>0.1146317720000098</v>
       </c>
       <c r="U73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V73">
         <v>2680.374639544067</v>
@@ -6640,12 +7297,21 @@
         <v>12.99</v>
       </c>
       <c r="AK73" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL73">
+        <v>12.81612399096</v>
+      </c>
+      <c r="AM73">
+        <v>0.02564812252052772</v>
+      </c>
+      <c r="AN73">
+        <v>0.05923055632438413</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>2020</v>
@@ -6705,7 +7371,7 @@
         <v>0.07707894900001122</v>
       </c>
       <c r="U74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V74">
         <v>2430.159678540324</v>
@@ -6714,12 +7380,21 @@
         <v>22.33432563564775</v>
       </c>
       <c r="AK74" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL74">
+        <v>13.13443329293</v>
+      </c>
+      <c r="AM74">
+        <v>0.04700386137197885</v>
+      </c>
+      <c r="AN74">
+        <v>0.06354578824426754</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>2020</v>
@@ -6779,7 +7454,7 @@
         <v>0.2596541350000052</v>
       </c>
       <c r="U75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V75">
         <v>2488.103170066372</v>
@@ -6806,12 +7481,21 @@
         <v>14.2</v>
       </c>
       <c r="AK75" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL75">
+        <v>13.19636951319</v>
+      </c>
+      <c r="AM75">
+        <v>0.03902723858220498</v>
+      </c>
+      <c r="AN75">
+        <v>0.07332007701290916</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>2020</v>
@@ -6871,7 +7555,7 @@
         <v>0.1545991679999901</v>
       </c>
       <c r="U76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V76">
         <v>2559.140773014202</v>
@@ -6880,12 +7564,21 @@
         <v>35.549763514306</v>
       </c>
       <c r="AK76" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL76">
+        <v>13.06583145668</v>
+      </c>
+      <c r="AM76">
+        <v>0.08645003065603921</v>
+      </c>
+      <c r="AN76">
+        <v>0.08407418761496011</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>2020</v>
@@ -6945,7 +7638,7 @@
         <v>0.06936149300000238</v>
       </c>
       <c r="U77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V77">
         <v>2014.202568908022</v>
@@ -6954,12 +7647,21 @@
         <v>41.20531963367993</v>
       </c>
       <c r="AK77" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL77">
+        <v>13.56165427323</v>
+      </c>
+      <c r="AM77">
+        <v>0.06870229007633585</v>
+      </c>
+      <c r="AN77">
+        <v>0.03053435114503816</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>2020</v>
@@ -7019,7 +7721,7 @@
         <v>0.3136769649999849</v>
       </c>
       <c r="U78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V78">
         <v>2749.49895700975</v>
@@ -7028,12 +7730,21 @@
         <v>29.1695740648931</v>
       </c>
       <c r="AK78" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL78">
+        <v>13.42780818515</v>
+      </c>
+      <c r="AM78">
+        <v>0.03368283093053736</v>
+      </c>
+      <c r="AN78">
+        <v>0.05714285714285713</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>2020</v>
@@ -7093,7 +7804,7 @@
         <v>0.2040351429999845</v>
       </c>
       <c r="U79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V79">
         <v>2810.068643690853</v>
@@ -7120,7 +7831,16 @@
         <v>15.07</v>
       </c>
       <c r="AK79" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL79">
+        <v>13.08462128367</v>
+      </c>
+      <c r="AM79">
+        <v>0.04581054201889605</v>
+      </c>
+      <c r="AN79">
+        <v>0.04506464445549476</v>
       </c>
     </row>
   </sheetData>
